--- a/medicine/Mort/Terrorisme_en_1962/Terrorisme_en_1962.xlsx
+++ b/medicine/Mort/Terrorisme_en_1962/Terrorisme_en_1962.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,19 +520,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-Avril
-Mai
-Juin
-Juillet
-Août
-22 août, France : le commando Delta de l'OAS lance une attaque contre la DS présidentielle du général de Gaulle[1]. L'attentat ne fait aucune victime.
-Septembre
-Octobre
-Novembre
-Décembre</t>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22 août, France : le commando Delta de l'OAS lance une attaque contre la DS présidentielle du général de Gaulle. L'attentat ne fait aucune victime.</t>
         </is>
       </c>
     </row>
